--- a/大数据比赛重做版/结果统计.xlsx
+++ b/大数据比赛重做版/结果统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D965208-BB63-4805-A47E-C279EC85EE59}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE27126-2A1F-481E-B265-FCF3C0936447}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1号车</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>4_8是用是石磊的账户，没有余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一部分。杨絮的账户中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,56 +407,53 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>299.2</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>230.1*181</f>
         <v>41648.1</v>
       </c>
-      <c r="D2">
+      <c r="C2">
+        <v>7062207.6833898304</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>2525827.4813107601</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>333.3</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3">
         <v>2349882.0444735098</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>203.6</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5">
         <v>2541377.0627128901</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>

--- a/大数据比赛重做版/结果统计.xlsx
+++ b/大数据比赛重做版/结果统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE27126-2A1F-481E-B265-FCF3C0936447}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB06EE-5C1C-438A-8061-525DDDE08C14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,11 +448,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2351330.1380079901</v>
+      </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1627399.2482360301</v>
+      </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>

--- a/大数据比赛重做版/结果统计.xlsx
+++ b/大数据比赛重做版/结果统计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB06EE-5C1C-438A-8061-525DDDE08C14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1538F8-81CB-401E-A470-AA40E9ABC613}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,12 +392,16 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,10 +415,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>18602784.378841799</v>
+      </c>
       <c r="B2">
-        <f>230.1*181</f>
-        <v>41648.1</v>
+        <f>230.1*181*1000</f>
+        <v>41648100</v>
       </c>
       <c r="C2">
         <v>7062207.6833898304</v>
@@ -429,7 +436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E3">
         <v>2349882.0444735098</v>
       </c>
@@ -437,17 +444,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>2541377.0627128901</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>2351330.1380079901</v>
       </c>
@@ -455,7 +462,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>2479354.1784833702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>1627399.2482360301</v>
       </c>

--- a/大数据比赛重做版/结果统计.xlsx
+++ b/大数据比赛重做版/结果统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1538F8-81CB-401E-A470-AA40E9ABC613}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D141B93-E9A3-42CB-8BD9-D5047E95FEF7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -437,6 +437,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>11429713.131544</v>
+      </c>
       <c r="E3">
         <v>2349882.0444735098</v>
       </c>

--- a/大数据比赛重做版/结果统计.xlsx
+++ b/大数据比赛重做版/结果统计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D141B93-E9A3-42CB-8BD9-D5047E95FEF7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA6C88-71A2-457C-B047-4B1250544AED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1号车</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,12 @@
   <si>
     <t>第一部分。杨絮的账户中</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle_id</t>
+  </si>
+  <si>
+    <t>track_mileage</t>
   </si>
 </sst>
 </file>
@@ -107,8 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,19 +399,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A18" sqref="A18:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>18602784.378841799</v>
       </c>
@@ -436,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>11429713.131544</v>
       </c>
@@ -447,17 +459,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>2657125.6350158998</v>
+      </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E5">
         <v>2541377.0627128901</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E6">
         <v>2351330.1380079901</v>
       </c>
@@ -465,18 +480,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E7">
         <v>2479354.1784833702</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>2540421.5203755102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f>SUM(C2:C3)/1000</f>
+        <v>18491.92081493383</v>
+      </c>
       <c r="E9">
         <v>1627399.2482360301</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f>SUM(E2:E9)/1000</f>
+        <v>19072.71730861596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18602.784378841799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <f>230.1*181</f>
+        <v>41648.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18491.92081493383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>19072.71730861596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/大数据比赛重做版/结果统计.xlsx
+++ b/大数据比赛重做版/结果统计.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA6C88-71A2-457C-B047-4B1250544AED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58534ACA-3FBE-4191-85BA-1ECE4F7E4CD5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,19 +401,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>18602784.378841799</v>
       </c>
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>11429713.131544</v>
       </c>
@@ -459,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>2657125.6350158998</v>
       </c>
@@ -467,12 +467,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>17528189.393785</v>
+      </c>
       <c r="E5">
         <v>2541377.0627128901</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3164245.2167689102</v>
+      </c>
       <c r="E6">
         <v>2351330.1380079901</v>
       </c>
@@ -480,17 +486,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3510509.1725043799</v>
+      </c>
       <c r="E7">
         <v>2479354.1784833702</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3502685.1930100801</v>
+      </c>
       <c r="E8">
         <v>2540421.5203755102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2149665.80333019</v>
+      </c>
       <c r="C9">
         <f>SUM(C2:C3)/1000</f>
         <v>18491.92081493383</v>
@@ -502,13 +517,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>5829230.2655062899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11">
         <f>SUM(E2:E9)/1000</f>
         <v>19072.71730861596</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>SUM(B5:B10)</f>
+        <v>35684525.04490485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -516,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -524,16 +550,16 @@
         <v>18602.784378841799</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
       <c r="B20" s="2">
-        <f>230.1*181</f>
-        <v>41648.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <f>B12/1000</f>
+        <v>35684.525044904847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -541,7 +567,7 @@
         <v>18491.92081493383</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -549,15 +575,15 @@
         <v>19072.71730861596</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
